--- a/biology/Zoologie/Eurytides_dolicaon/Eurytides_dolicaon.xlsx
+++ b/biology/Zoologie/Eurytides_dolicaon/Eurytides_dolicaon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurytides dolicaon est un insecte lépidoptère de la famille des Papilionidae, de la sous-famille des Papilioninae et du genre Eurytides.
 </t>
@@ -511,82 +523,91 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Eurytides dolicaon a été décrit par Pieter Cramer en 1775 sous le nom de Papilio dolicaon[1].
-Noms vernaculaires
-Eurytides dolicaon se nomme Dolicaon Kite Swallowtail en anglais[2].
-Sous-espèces
-Eurytides dolicaon dolicaon présent en Guyane.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurytides dolicaon a été décrit par Pieter Cramer en 1775 sous le nom de Papilio dolicaon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eurytides_dolicaon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurytides_dolicaon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurytides dolicaon se nomme Dolicaon Kite Swallowtail en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eurytides_dolicaon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurytides_dolicaon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Eurytides dolicaon dolicaon présent en Guyane.
 Eurytides dolicaon cauraensis Möhn, 2002; présent dans le sud-est du Venezuela.
 Eurytides dolicaon deicoon (C. et R. Felder, 1864); présent au Paraguay et dans le sud-est du Brésil.
 Eurytides dolicaon deileon (C. et R. Felder, 1865); dans l'est de la Colombie et de l'Équateur, en Bolivie, au Brésil et au Pérou.
 Eurytides dolicaon hebreus Brown et Lamas, 1994; présent en Colombie.
 Eurytides dolicaon septentrionalis Brown, 1994; présent à Panama.
-Eurytides dolicaon tromes (Rothschild et Jordan, 1906); présent dans le nord-ouest du Venezuela[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Eurytides_dolicaon</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eurytides_dolicaon</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurytides dolicaon est un grand papillon d'une envergure de plus de 80 mm de couleur blanc crème aux veines marquées de noir avec à chaque aile postérieure une queue très longue et fine marron foncée ou noire à extrémité jaune. Une ornementation marron à noire en bordure, à l'apex et en bandes forme de grandes taches blanc crème. Il présente aux postérieures une ligne marginale de lunules bleues.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Eurytides_dolicaon</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eurytides_dolicaon</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Guatteria,  Ocotea et Nectandra[1].
-</t>
+Eurytides dolicaon tromes (Rothschild et Jordan, 1906); présent dans le nord-ouest du Venezuela.</t>
         </is>
       </c>
     </row>
@@ -611,16 +632,158 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurytides dolicaon est un grand papillon d'une envergure de plus de 80 mm de couleur blanc crème aux veines marquées de noir avec à chaque aile postérieure une queue très longue et fine marron foncée ou noire à extrémité jaune. Une ornementation marron à noire en bordure, à l'apex et en bandes forme de grandes taches blanc crème. Il présente aux postérieures une ligne marginale de lunules bleues.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eurytides_dolicaon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurytides_dolicaon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Guatteria,  Ocotea et Nectandra.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eurytides_dolicaon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurytides_dolicaon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans tout le nord de l’Amérique du Sud [1]
-Biotope
-Il réside dans la forêt humide[3].
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans tout le nord de l’Amérique du Sud 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eurytides_dolicaon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurytides_dolicaon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt humide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eurytides_dolicaon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurytides_dolicaon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
